--- a/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>东兴兴晟混合C</t>
   </si>
   <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
     <t>79.73</t>
   </si>
   <si>
     <t>0.75</t>
+  </si>
+  <si>
+    <t>0.0124</t>
+  </si>
+  <si>
+    <t>0.0031</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>009327</t>
-  </si>
-  <si>
-    <t>009328</t>
-  </si>
-  <si>
-    <t>东兴兴晟混合A</t>
-  </si>
-  <si>
-    <t>东兴兴晟混合C</t>
-  </si>
-  <si>
-    <t>1.66</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>79.73</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.0124</t>
-  </si>
-  <si>
-    <t>0.0031</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8947</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.76</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +882,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.76</v>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1178,13 +1243,627 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+      <c r="D4" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011328</t>
+          <t>012719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城新能源产业股票A</t>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>108.79</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8947</t>
+          <t>0.5294</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011329</t>
+          <t>010122</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城新能源产业股票C</t>
+          <t>华泰柏瑞优势领航混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.24</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5862</t>
+          <t>0.1611</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -713,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001471</t>
+          <t>013184</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通新能源灵活配置混合</t>
+          <t>广发恒阳一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>20.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.89</t>
+          <t>36.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2021</t>
+          <t>0.1550</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -751,35 +719,489 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501063</t>
+          <t>001815</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富悦享定期开放混合</t>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>90.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0817</t>
+          <t>0.1292</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1116,7 +1538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1167,36 +1589,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012719</t>
+          <t>011328</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+          <t>景顺长城新能源产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.09</t>
+          <t>108.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5294</t>
+          <t>3.8947</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1205,36 +1627,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010122</t>
+          <t>011329</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞优势领航混合A</t>
+          <t>景顺长城新能源产业股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>72.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1611</t>
+          <t>2.5862</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1243,36 +1665,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013184</t>
+          <t>001471</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发恒阳一年持有期混合A</t>
+          <t>融通新能源灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.39</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36.27</t>
+          <t>90.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1550</t>
+          <t>0.2021</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1281,489 +1703,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001815</t>
+          <t>501063</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞激励动力灵活配置混合A</t>
+          <t>汇添富悦享定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>86.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1292</t>
+          <t>0.0817</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002419</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富盈安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1109</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013185</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发恒阳一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36.27</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0755</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002810</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金信转型创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0742</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011550</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>湘财创新成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002082</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞激励动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0434</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012720</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010123</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞优势领航混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>014837</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富盈安灵活配置混合D</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011551</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>湘财创新成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010076</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010077</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>014836</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇添富盈安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1778,96 +1746,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.41</v>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>6.76</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>1.41</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>6.76</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -549,6 +566,934 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014254</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳领先智选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4679</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳星奕混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3878</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳星奕混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016418</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1210,7 +2155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1532,7 +2477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1740,7 +2685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603197-保隆科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>5.15</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>1.41</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>6.76</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -566,6 +583,1232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0425</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳领先智选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5754</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳先进智造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4571</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳星奕混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012033</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿盛混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信澳星奕混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014255</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信澳智远三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013137</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012034</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发睿盛混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信澳科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>017178</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>016418</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>016920</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>016919</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1493,7 +2736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2155,7 +3398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2477,7 +3720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2685,7 +3928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
